--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Magallanes.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Magallanes.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Re91dcd802f1344ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R05b4f89c352745e1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1599366.0916095</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19770099.05</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11247.911498</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31788</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1554326.5794639</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20836650.631284</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11516.942989</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31877</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1580608.6362267</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21148597.167567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12223.954138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1583855.1029902</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20618536.672043</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11629.936585</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32177</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1628381.4354041</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22170503.43617</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12351.363864</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32246</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1650771.965453</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21229520.1875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12940.529431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1625652.9901106</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18660042.835051</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12048.608196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32642</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1612057.5200661</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19257402.689119</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12567.070863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32759</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1671598.6291706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17695163.030612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11936.398897</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1613470.2300823</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17653306.741293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12921.448275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33076</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1653290.4512637</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17029190.144278</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13207.464559</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33184</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1719175.1418153</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15713782.96</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13963.409687</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33311</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1754271.9126114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15694877.310344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14285.173594</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1745238.0660154</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16587022.82266</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14286.06022</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1738595.5832662</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17801661.043478</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13375.366356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33719</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1754318.2377591</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18412341.147619</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14469.633683</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34257</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1772739.2945967</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18673827.573459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15252.069511</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34470</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1780570.9916159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18847087.879629</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14948.315195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34690</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1721170.2014413</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18444990.663636</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14504.06046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34788</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1709872.8913131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17947286.298642</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14892.044531</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34943</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1754585.7493346</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18416795.273127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15083.713203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35091</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1750320.3053774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17418570.394736</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15464.963852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1784087.2296726</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17162740.197368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16019.754455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35442</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1848921.4446701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16746581.965517</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17776.77087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35564</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1903072.0678213</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19521884.017094</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18209.849182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1907346.253962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22749185.190678</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17899.922968</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1895232.4638447</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24889496.109704</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17328.226384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1908386.7814888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31675866.405857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17741.127565</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36252</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1955073.7828809</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37787777.466386</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17857.27684</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36518</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2007520.967961</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34002497.919831</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18306.995508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2024718.4641698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32888695.133891</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18171.12082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36974</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1960306.3852166</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32379714.657024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17362.060094</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37192</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1990031.2975371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28946152.044534</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18903.337193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37377</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1977541.7270781</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27765885.560483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19072.62306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37597</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2002369.0389126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27442899.50996</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18603.893379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37794</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2069187.9563687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29037866.628906</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21483.434519</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37904</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2114896.5465386</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30339168.744186</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21261.993696</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38005</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2085756.1276937</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31765049.644531</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19727.897792</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38207</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2092068.4416468</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32588434.456692</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20353.911583</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38373</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2091814.4142235</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36262410.821011</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21256.730277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38582</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2090114.4215955</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41540149.7</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21745.275293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38765</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2130610.3630852</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40856441.828244</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21915.619787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38893</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2102503.8266269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42879575.90458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21779.682007</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2049247.5967746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44548354.5229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20927.090823</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39342</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2081214.9107061</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39128544.912547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22688.060382</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39497</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2037908.7139276</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33495830.116541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22782.582472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39693</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2012395.498501</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32849645.101123</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22276.936712</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39870</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2093492.9761474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34050914.477777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24978.930222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39975</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2187609.5452407</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32628066.215613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23541.804018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40044</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2130080.9220357</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31039061.981481</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22686.449651</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40323</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2090805.5750564</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31862583.535055</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23689.402761</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2078178.2925299</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34249056.820512</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24218.148064</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40735</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2098464.9372775</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37341096.472727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24675.930629</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40960</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2131593.7120849</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36817845.08633</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25940.821391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41166</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2112113.8061264</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33202653.546357</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24387.566147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2046843.4085125</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32567588.088607</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25192.633807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41580</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2121520.6210437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31131152.567484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26048.569285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41787</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2073246.273865</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28359960.195335</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25906.703119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42007</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2082230.9004451</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25813815.04507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27731.617064</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42180</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2180875.0606448</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24465573.51532</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30915.857736</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42377</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2215258.6701984</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24779854.927419</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29970.033801</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42531</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2223118.006748</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23820648.77202</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30656.724025</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2247509.9492124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25157870.40458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31282.480117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42977</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2207416.5150196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26617626.01023</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29405.339407999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43198</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2252148.5998657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28408558.144303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31335.594555</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2285641.9935996</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29149674.6525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32558.308641</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43629</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2224876.1808659</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23458270.87593</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30721.716405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2136919.5005805</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18680893.658476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30976.970903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44076</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2194205.5598057</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17220996.72549</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31761.69617</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44374</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2107941.5364177</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16793054.571428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31467.582443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2140032.2801096</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15862678.711217</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32284.381955</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2223999.9713685</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16794220.12589</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35340.180113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2232623.2490005</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16562559.422897</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34140.89632</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45224</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2211357.1734256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16406216.28271</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33839.84508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45540</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2223515.5309398</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18209262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34509.805375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45824</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2211752.5097765</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19195078.18648</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33508.178555</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46111</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2227678.2370367</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19608515.144186</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35260.294095</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46334</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2224339.8849009</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18417810.540415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36243.593366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46654</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2176595.5674325</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18297195.771167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34503.751422</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46847</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2149386.4399001</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17922650.882882</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35543.474864999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47133</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2239826.2027454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21481423.782909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34448.311521</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47362</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2199705.6623242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21579110.115207</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36224.657991</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47573</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2206203.072415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18458680.177272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36876.101973</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2346980.4590565</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13487151.716517</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37997.785667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47947</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2341039.7664504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13133987.293216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40189.645997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48087</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2323585.2805955</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13847101.400862</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39388.478594</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48194</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2350513.5654853</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15821582.709745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40828.002903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48142</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2528739.4903618</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16831936.367088</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46423.395129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2713610.7598761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18424132.580168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47707.694111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2892679.5682177</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18408920.312369</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47613.114612</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2950729.8918862</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17376143.389234</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50744.69019</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48357</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3144033.6047521</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17386561.29918</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89263.000596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48523</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3395947.8901964</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17575648.036585</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91631.56494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3459923.4951703</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17295857.993939</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87428.08446</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49061</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3390622.863741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16906406.540433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79358.814856</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49280</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3525813.9571428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15893623.283495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110813.946065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>102786.207886</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>94892.54157</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>89214.868535</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>90930.897112</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>123710.991426</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>116722.263386</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>116020.543789</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>109858.503488</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>109240.107595</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>105413.434708</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>100641.685532</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>102050.352556</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>94011.882092</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>88955.730315</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>86027.538818</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>84684.431508</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>80341.668301</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>78510.872779</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>75798.918145</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>74480.447279</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>74551.49302</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>71530.657947</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>69172.061925</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>73385.526561</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>70567.487752</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>68775.504206</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>69165.345327</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>67961.638538</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>66544.445846</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>68446.896123</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>63383.950224</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>65030.157503</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>65855.926912</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>64254.29421</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>64439.407335</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>68505.247726</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>67205.330022</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>66989.418733</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>68754.823405</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>66489.168081</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>67949.332063</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>68964.73695</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>65294.028838</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
